--- a/ampieta-game-java-common/src/main/resources/excel/WeaponsDataConfigResource.xlsx
+++ b/ampieta-game-java-common/src/main/resources/excel/WeaponsDataConfigResource.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="11670"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -31,7 +44,7 @@
     <t>weaponInitValue</t>
   </si>
   <si>
-    <t>weaponInitType</t>
+    <t>weaponMainInitType</t>
   </si>
   <si>
     <t>weaponInitProgress</t>
@@ -49,6 +62,12 @@
     <t>weaponQuality</t>
   </si>
   <si>
+    <t>orderNum</t>
+  </si>
+  <si>
+    <t>reinforcementEqualOrder</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -86,6 +105,12 @@
   </si>
   <si>
     <t>武器品质</t>
+  </si>
+  <si>
+    <t>武器可以进阶几次 关联 武器技能数据</t>
+  </si>
+  <si>
+    <t>武器强化到一定等级可以突破 这个过程几次</t>
   </si>
   <si>
     <t>新手长枪</t>
@@ -112,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -128,55 +153,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +210,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -266,7 +270,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,49 +306,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,121 +444,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,21 +497,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,6 +529,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,148 +602,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,52 +754,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1045,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1056,15 +1081,17 @@
     <col min="2" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="27.75" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="42.25" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+    <col min="13" max="13" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,83 +1125,101 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1192,10 +1237,10 @@
         <v>1.74</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>70</v>
@@ -1203,13 +1248,19 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1227,10 +1278,10 @@
         <v>1.74</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>70</v>
@@ -1238,13 +1289,19 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>10002</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1262,10 +1319,10 @@
         <v>1.74</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>70</v>
@@ -1273,13 +1330,19 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>10003</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1297,10 +1360,10 @@
         <v>1.74</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>70</v>
@@ -1308,13 +1371,19 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>10004</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1332,16 +1401,22 @@
         <v>1.74</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>70</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ampieta-game-java-common/src/main/resources/excel/WeaponsDataConfigResource.xlsx
+++ b/ampieta-game-java-common/src/main/resources/excel/WeaponsDataConfigResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="17775" tabRatio="432"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>weaponInitProgress</t>
   </si>
   <si>
+    <t>weaponProgress</t>
+  </si>
+  <si>
     <t>iconResource</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>reinforcementEqualOrder</t>
   </si>
   <si>
+    <t>bagIconResource</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>武器强化1-20级每级强化数字</t>
   </si>
   <si>
+    <t>武器强化20级之每个阶段所强化数值</t>
+  </si>
+  <si>
     <t>icon资源</t>
   </si>
   <si>
@@ -113,25 +122,109 @@
     <t>武器强化到一定等级可以突破 这个过程几次</t>
   </si>
   <si>
+    <t>背包里面icon名</t>
+  </si>
+  <si>
     <t>新手长枪</t>
   </si>
   <si>
-    <t>imager1</t>
+    <t>20+1.7|40+1.7|50+1.7|60+1.6</t>
+  </si>
+  <si>
+    <t>IMG59</t>
   </si>
   <si>
     <t>20+12|40+11|50+11|60+11</t>
   </si>
   <si>
+    <t>UI_BagIcon_IMG59</t>
+  </si>
+  <si>
     <t>训练大剑</t>
   </si>
   <si>
+    <t>Claymore_Aniki</t>
+  </si>
+  <si>
+    <t>UI_BagIcon_Claymore_Aniki</t>
+  </si>
+  <si>
     <t>学徒笔记</t>
   </si>
   <si>
+    <t>Catalyst_Apprentice</t>
+  </si>
+  <si>
+    <t>UI_BagIcon_Catalyst_Apprentice</t>
+  </si>
+  <si>
     <t>猎弓</t>
   </si>
   <si>
+    <t>Bow_Hunters</t>
+  </si>
+  <si>
+    <t>UI_BagIcon_Bow_Hunters</t>
+  </si>
+  <si>
     <t>无锋剑</t>
+  </si>
+  <si>
+    <t>Sword_Blunt</t>
+  </si>
+  <si>
+    <t>UI_BagIcon_Sword_Blunt</t>
+  </si>
+  <si>
+    <t>银剑</t>
+  </si>
+  <si>
+    <t>20+2.40|40+2.30|50+2.30|60+2.30</t>
+  </si>
+  <si>
+    <t>Sword_Blunt_Awaken</t>
+  </si>
+  <si>
+    <t>20+11|40+12|50+12|60+11</t>
+  </si>
+  <si>
+    <t>UI_BagIcon_Sword_Blunt_Awaken</t>
+  </si>
+  <si>
+    <t>口袋魔导书</t>
+  </si>
+  <si>
+    <t>Catalyst_Pocket</t>
+  </si>
+  <si>
+    <t>UI_BagIcon_Catalyst_Pocket</t>
+  </si>
+  <si>
+    <t>历练的猎弓</t>
+  </si>
+  <si>
+    <t>Bow_Old</t>
+  </si>
+  <si>
+    <t>UI_BagIcon_Bow_Old</t>
+  </si>
+  <si>
+    <t>佣兵重剑</t>
+  </si>
+  <si>
+    <t>Claymore_Oyaji</t>
+  </si>
+  <si>
+    <t>UI_BagIcon_Claymore_Oyaji</t>
+  </si>
+  <si>
+    <t>铁尖枪</t>
+  </si>
+  <si>
+    <t>IMG54</t>
+  </si>
+  <si>
+    <t>UI_BagIcon_IMG54</t>
   </si>
 </sst>
 </file>
@@ -1070,28 +1163,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3000" topLeftCell="F1" activePane="topRight"/>
+      <selection/>
+      <selection pane="topRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="27.75" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="42.25" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="36" customWidth="1"/>
-    <col min="13" max="13" width="41.125" customWidth="1"/>
+    <col min="8" max="8" width="33.875" customWidth="1"/>
+    <col min="9" max="9" width="27.375" customWidth="1"/>
+    <col min="10" max="10" width="42.25" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="36" customWidth="1"/>
+    <col min="14" max="14" width="41.125" customWidth="1"/>
+    <col min="15" max="15" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1131,95 +1228,113 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1237,30 +1352,36 @@
         <v>1.74</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4">
         <v>70</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1278,30 +1399,36 @@
         <v>1.74</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
         <v>70</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>10002</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1319,30 +1446,36 @@
         <v>1.74</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6">
         <v>70</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>10003</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1360,30 +1493,36 @@
         <v>1.74</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
         <v>70</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>10004</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1401,22 +1540,263 @@
         <v>1.74</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
         <v>70</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>10005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9">
+        <v>70</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>10006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>70</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>10007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>70</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>10008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>70</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>10009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <v>70</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
